--- a/main_project/output/job_data.xlsx
+++ b/main_project/output/job_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="530">
   <si>
     <t>Listed Date</t>
   </si>
@@ -43,109 +43,1567 @@
     <t>Apply URL</t>
   </si>
   <si>
+    <t>2025-02-13 13:14</t>
+  </si>
+  <si>
+    <t>2025-02-13 03:25</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:45</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:28</t>
+  </si>
+  <si>
+    <t>2025-02-12 23:09</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:04</t>
+  </si>
+  <si>
+    <t>2025-02-13 08:39</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:37</t>
+  </si>
+  <si>
+    <t>2025-02-13 03:29</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:19</t>
+  </si>
+  <si>
     <t>2025-02-13 13:24</t>
   </si>
   <si>
-    <t>2025-02-13 13:04</t>
+    <t>2025-02-13 19:24</t>
+  </si>
+  <si>
+    <t>2025-02-13 21:03</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:45</t>
+  </si>
+  <si>
+    <t>2025-02-13 14:01</t>
+  </si>
+  <si>
+    <t>2025-02-13 12:04</t>
+  </si>
+  <si>
+    <t>2025-02-13 14:05</t>
+  </si>
+  <si>
+    <t>2025-02-13 18:14</t>
+  </si>
+  <si>
+    <t>2025-02-13 14:02</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:40</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:05</t>
+  </si>
+  <si>
+    <t>2025-02-13 23:09</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:56</t>
+  </si>
+  <si>
+    <t>2025-02-13 12:05</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:56</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:31</t>
+  </si>
+  <si>
+    <t>2025-02-13 12:55</t>
+  </si>
+  <si>
+    <t>2025-02-13 17:30</t>
+  </si>
+  <si>
+    <t>2025-02-13 21:27</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:03</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:49</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:20</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:34</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:23</t>
+  </si>
+  <si>
+    <t>2025-02-13 12:56</t>
+  </si>
+  <si>
+    <t>2025-02-13 09:06</t>
+  </si>
+  <si>
+    <t>2025-02-13 09:08</t>
+  </si>
+  <si>
+    <t>2025-02-13 09:09</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:25</t>
+  </si>
+  <si>
+    <t>2025-02-13 03:30</t>
+  </si>
+  <si>
+    <t>2025-02-13 08:53</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:18</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:42</t>
+  </si>
+  <si>
+    <t>2025-02-13 23:32</t>
+  </si>
+  <si>
+    <t>2025-02-13 14:00</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:57</t>
+  </si>
+  <si>
+    <t>2025-02-13 21:14</t>
+  </si>
+  <si>
+    <t>2025-02-13 18:08</t>
+  </si>
+  <si>
+    <t>2025-02-13 23:27</t>
+  </si>
+  <si>
+    <t>2025-02-13 11:25</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:32</t>
+  </si>
+  <si>
+    <t>2025-02-13 18:40</t>
+  </si>
+  <si>
+    <t>2025-02-13 18:26</t>
+  </si>
+  <si>
+    <t>2025-02-13 08:52</t>
+  </si>
+  <si>
+    <t>2025-02-13 02:08</t>
   </si>
   <si>
     <t>2025-02-13 10:35</t>
   </si>
   <si>
-    <t>2025-02-13 03:30</t>
+    <t>2025-02-13 13:55</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:16</t>
+  </si>
+  <si>
+    <t>2025-02-12 23:31</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:13</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:38</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:39</t>
+  </si>
+  <si>
+    <t>2025-02-13 09:05</t>
+  </si>
+  <si>
+    <t>2025-02-13 18:46</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:27</t>
+  </si>
+  <si>
+    <t>2025-02-13 04:14</t>
+  </si>
+  <si>
+    <t>2025-02-13 09:03</t>
+  </si>
+  <si>
+    <t>2025-02-13 05:32</t>
+  </si>
+  <si>
+    <t>2025-02-13 23:26</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:46</t>
   </si>
   <si>
     <t>2025-02-13 13:15</t>
   </si>
   <si>
+    <t>2025-02-13 04:21</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:20</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:42</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:26</t>
+  </si>
+  <si>
+    <t>2025-02-13 02:13</t>
+  </si>
+  <si>
+    <t>2025-02-13 10:36</t>
+  </si>
+  <si>
+    <t>2025-02-13 13:21</t>
+  </si>
+  <si>
+    <t>2025-02-13 20:55</t>
+  </si>
+  <si>
+    <t>2025-02-13 22:12</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>[Full Remote] Software Engineer</t>
+  </si>
+  <si>
+    <t>Remote Software Developer | WFH Opportunity</t>
+  </si>
+  <si>
+    <t>Software Engineer, Forward Deployed (Glide)</t>
+  </si>
+  <si>
+    <t>Remote Software Engineer - Cloud Image Automation</t>
+  </si>
+  <si>
+    <t>Software Engineer, Product (San Francisco Remote)</t>
+  </si>
+  <si>
+    <t>Software Engineer, Perception (All levels)</t>
+  </si>
+  <si>
     <t>Software Engineer (Remote - US)</t>
   </si>
   <si>
-    <t>Software Engineer</t>
+    <t>Senior Frontend Software Engineer II</t>
+  </si>
+  <si>
+    <t>Software Engineer - Blockchain Platform Nodes</t>
+  </si>
+  <si>
+    <t>Software Engineer (all levels)</t>
+  </si>
+  <si>
+    <t>Software Engineer (C++)</t>
+  </si>
+  <si>
+    <t>SAP ABAP Developer – Remote with 50% Travel to Battle Creek, MI</t>
+  </si>
+  <si>
+    <t>Software Engineer, Product Led Growth</t>
+  </si>
+  <si>
+    <t>Software Engineer (Angular, GCP)</t>
+  </si>
+  <si>
+    <t>Software Engineer, Implementations (SF Remote)</t>
+  </si>
+  <si>
+    <t>Remote Junior Software Engineer - Hybrid | WFH</t>
+  </si>
+  <si>
+    <t>Remote Software Engineer - Python - Container Images | WFH</t>
+  </si>
+  <si>
+    <t>Backend Software Engineer II (Python)</t>
+  </si>
+  <si>
+    <t>Early Career C#/ C. Net /Java Developer</t>
+  </si>
+  <si>
+    <t>Software Engineer (PHP)</t>
+  </si>
+  <si>
+    <t>DB2 Systems Programmer</t>
+  </si>
+  <si>
+    <t>Application Developer</t>
+  </si>
+  <si>
+    <t>Junior Software Engineer (React / Redux / Go) - 100% Remote</t>
+  </si>
+  <si>
+    <t>Software Engineer (Java , GoLang) (REMOTE)</t>
+  </si>
+  <si>
+    <t>Software Engineer II</t>
+  </si>
+  <si>
+    <t>Software Development Engineer (Backend Engineer)</t>
+  </si>
+  <si>
+    <t>Software Engineer 0</t>
+  </si>
+  <si>
+    <t>Software Engineer: Linux + Kubernetes + Go</t>
+  </si>
+  <si>
+    <t>Software Engineer I</t>
+  </si>
+  <si>
+    <t>Associate Software Engineer</t>
+  </si>
+  <si>
+    <t>Software Development Engineer and AWS Connect Engineer</t>
+  </si>
+  <si>
+    <t>Software Engineer I (US)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Developer </t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>[Full Remote] Entry Level Software Developer</t>
+  </si>
+  <si>
+    <t>Entry Level Software Developer</t>
+  </si>
+  <si>
+    <t>TestCandidate-Software Developer</t>
+  </si>
+  <si>
+    <t>Junior Software Developer</t>
+  </si>
+  <si>
+    <t>Associate Software Developer - Genetics Center</t>
+  </si>
+  <si>
+    <t>Software Engineer/Developer</t>
+  </si>
+  <si>
+    <t>Software Developer, Junior</t>
+  </si>
+  <si>
+    <t>Software Developer (Full Stack): 25-03892</t>
+  </si>
+  <si>
+    <t>Software Developer, 2025 Leadership Development Program, Uniondale</t>
+  </si>
+  <si>
+    <t>Software Developer / Remote / Angular15+ and C#</t>
+  </si>
+  <si>
+    <t>Software Developer II</t>
+  </si>
+  <si>
+    <t>Jr. Software Developer</t>
+  </si>
+  <si>
+    <t>Software Developer/Engineer</t>
+  </si>
+  <si>
+    <t>Software Developer | Hybrid</t>
+  </si>
+  <si>
+    <t>PHP Software Developer (LAMP)</t>
   </si>
   <si>
     <t>Software Developer - Web</t>
   </si>
   <si>
-    <t>[Full Remote] Entry Level Software Developer</t>
+    <t>UKG (Ultimate Kronos Group) - Software Engineer, application via RippleMatch</t>
+  </si>
+  <si>
+    <t>Software Developer (onsite position)</t>
+  </si>
+  <si>
+    <t>Associate Software Developer</t>
+  </si>
+  <si>
+    <t>Software Developer - Java</t>
+  </si>
+  <si>
+    <t>Software Developer - Backend</t>
+  </si>
+  <si>
+    <t>Junior Front End Developer</t>
+  </si>
+  <si>
+    <t>Software Engineer, Fleet Infrastructure</t>
+  </si>
+  <si>
+    <t>Software Engineer, New Grad (Dec 2024 Only)</t>
+  </si>
+  <si>
+    <t>Freelance Web Developer</t>
+  </si>
+  <si>
+    <t>Software Engineer - Distributed Caching</t>
+  </si>
+  <si>
+    <t>React Developer-F2F interview</t>
+  </si>
+  <si>
+    <t>React.js / Node.js Developer</t>
+  </si>
+  <si>
+    <t>Remote Full Stack Engineer - Hybrid Opportunity | WFH</t>
   </si>
   <si>
     <t>Backend Engineer</t>
   </si>
   <si>
+    <t>Software Engineer, Core Data Services</t>
+  </si>
+  <si>
+    <t>Junior Software Engineer</t>
+  </si>
+  <si>
+    <t>Node JS</t>
+  </si>
+  <si>
+    <t>Remote Junior Web Developer</t>
+  </si>
+  <si>
+    <t>Full Stack Developer, remote</t>
+  </si>
+  <si>
+    <t>Junior Full Stack Developer</t>
+  </si>
+  <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>Python Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Tax-Salt Lake City-Associate-Software Engineering</t>
+  </si>
+  <si>
+    <t>Full Stack Software Engineer, Starfleet</t>
+  </si>
+  <si>
+    <t>MaestroQA</t>
+  </si>
+  <si>
+    <t>Joinrs US</t>
+  </si>
+  <si>
+    <t>Get It - Professional Services</t>
+  </si>
+  <si>
+    <t>Pear VC</t>
+  </si>
+  <si>
+    <t>Nexis Builds</t>
+  </si>
+  <si>
+    <t>InvoiceCloud, Inc.</t>
+  </si>
+  <si>
+    <t>Prelim</t>
+  </si>
+  <si>
+    <t>Overland AI</t>
+  </si>
+  <si>
     <t>Passthrough</t>
   </si>
   <si>
-    <t>InvoiceCloud, Inc.</t>
+    <t>Axon</t>
+  </si>
+  <si>
+    <t>Coinbase</t>
+  </si>
+  <si>
+    <t>Pomelo Care</t>
+  </si>
+  <si>
+    <t>ScriptPro</t>
+  </si>
+  <si>
+    <t>Accenture Federal Services</t>
+  </si>
+  <si>
+    <t>Upstart</t>
+  </si>
+  <si>
+    <t>Trissential</t>
+  </si>
+  <si>
+    <t>Bestow</t>
+  </si>
+  <si>
+    <t>Gainwell Technologies</t>
+  </si>
+  <si>
+    <t>Focus School Software</t>
+  </si>
+  <si>
+    <t>Worldpay</t>
+  </si>
+  <si>
+    <t>Ascendion</t>
+  </si>
+  <si>
+    <t>Optomi</t>
+  </si>
+  <si>
+    <t>SailPoint</t>
+  </si>
+  <si>
+    <t>NBCUniversal</t>
+  </si>
+  <si>
+    <t>DS Technologies Inc</t>
+  </si>
+  <si>
+    <t>Onyx Point, LLC.</t>
+  </si>
+  <si>
+    <t>Right Balance ®</t>
+  </si>
+  <si>
+    <t>mPulse</t>
+  </si>
+  <si>
+    <t>eMoney Advisor</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>DataAnnotation</t>
+  </si>
+  <si>
+    <t>COUNTRY Financial®</t>
+  </si>
+  <si>
+    <t>SkillStorm</t>
+  </si>
+  <si>
+    <t>SPARK INVESTMENT MANAGEMENT LLC</t>
+  </si>
+  <si>
+    <t>Avid Technology Professionals</t>
+  </si>
+  <si>
+    <t>Regeneron</t>
+  </si>
+  <si>
+    <t>DLRdmv</t>
+  </si>
+  <si>
+    <t>Trilogy Innovations</t>
+  </si>
+  <si>
+    <t>Akraya, Inc.</t>
+  </si>
+  <si>
+    <t>ION</t>
+  </si>
+  <si>
+    <t>Jobs via Dice</t>
+  </si>
+  <si>
+    <t>Smart City Networks</t>
+  </si>
+  <si>
+    <t>Robert Half</t>
+  </si>
+  <si>
+    <t>Maxar Technologies</t>
+  </si>
+  <si>
+    <t>OnTrac</t>
+  </si>
+  <si>
+    <t>CACI International Inc</t>
+  </si>
+  <si>
+    <t>CyberCoders</t>
   </si>
   <si>
     <t>Uline</t>
   </si>
   <si>
-    <t>Joinrs US</t>
+    <t>RippleMatch</t>
+  </si>
+  <si>
+    <t>DUAL North America</t>
+  </si>
+  <si>
+    <t>BPS Bioscience Inc.</t>
+  </si>
+  <si>
+    <t>University of Utah</t>
+  </si>
+  <si>
+    <t>Actalent</t>
+  </si>
+  <si>
+    <t>Viderity Inc.</t>
+  </si>
+  <si>
+    <t>Prescient Edge</t>
+  </si>
+  <si>
+    <t>Applied Research Solutions</t>
+  </si>
+  <si>
+    <t>CAVALLO</t>
+  </si>
+  <si>
+    <t>Lakewood Church</t>
+  </si>
+  <si>
+    <t>Cira Tek</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Replo</t>
+  </si>
+  <si>
+    <t>JohnsonRauhoff</t>
+  </si>
+  <si>
+    <t>Datadog</t>
+  </si>
+  <si>
+    <t>Cox Automotive Inc.</t>
+  </si>
+  <si>
+    <t>VKore Solutions LLC</t>
   </si>
   <si>
     <t>Bevel</t>
   </si>
   <si>
+    <t>Qumulo</t>
+  </si>
+  <si>
+    <t>TEKsystems</t>
+  </si>
+  <si>
+    <t>Scopic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beola Le'Shaun Consulting </t>
+  </si>
+  <si>
+    <t>Signals</t>
+  </si>
+  <si>
+    <t>Genentech</t>
+  </si>
+  <si>
+    <t>Metafic</t>
+  </si>
+  <si>
+    <t>Air Space Intelligence</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>xAI</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
+    <t>Honolulu, HI</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Mission, KS</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>Rochester, MN</t>
+  </si>
+  <si>
+    <t>Mount Laurel, NJ</t>
+  </si>
+  <si>
+    <t>Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>Conway, AR</t>
+  </si>
+  <si>
+    <t>St. Petersburg, FL</t>
+  </si>
+  <si>
+    <t>Georgia, United States</t>
+  </si>
+  <si>
+    <t>Orlando, FL</t>
+  </si>
+  <si>
+    <t>Hanover, MD</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale, FL</t>
+  </si>
+  <si>
+    <t>Yonkers, NY</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Miami, FL</t>
+  </si>
+  <si>
+    <t>Columbia, MD</t>
+  </si>
+  <si>
+    <t>Tarrytown, NY</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>Bridgeport, WV</t>
+  </si>
+  <si>
+    <t>California, United States</t>
+  </si>
+  <si>
+    <t>Uniondale, NY</t>
+  </si>
+  <si>
+    <t>Boynton Beach, FL</t>
+  </si>
+  <si>
+    <t>Mentor, OH</t>
+  </si>
+  <si>
+    <t>Herndon, VA</t>
+  </si>
+  <si>
+    <t>Fairborn, OH</t>
+  </si>
+  <si>
+    <t>Irvine, CA</t>
+  </si>
+  <si>
     <t>Lake Forest, IL</t>
   </si>
   <si>
-    <t>New York, NY</t>
+    <t>Weston, FL</t>
+  </si>
+  <si>
+    <t>Salt Lake City, UT</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Glenview, IL</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>Raleigh, NC</t>
+  </si>
+  <si>
+    <t>Alexandria, VA</t>
+  </si>
+  <si>
+    <t>McLean, VA</t>
+  </si>
+  <si>
+    <t>Dayton, OH</t>
+  </si>
+  <si>
+    <t>Grand Rapids, MI</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Springfield, IL</t>
+  </si>
+  <si>
+    <t>St Joseph, MI</t>
+  </si>
+  <si>
+    <t>Anaheim, CA</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>St Louis, MO</t>
+  </si>
+  <si>
+    <t>Menlo Park, CA</t>
+  </si>
+  <si>
+    <t>Provo, UT</t>
+  </si>
+  <si>
+    <t>South San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Remote</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>['React', 'Go', 'Cloud', 'Django']</t>
-  </si>
-  <si>
-    <t>['Agile', '.NET', 'Cloud', 'SQL']</t>
-  </si>
-  <si>
-    <t>['Agile', 'MVC', 'jQuery', 'Cassandra', 'Java', 'JavaScript', 'TypeScript', 'SQL', 'Angular']</t>
-  </si>
-  <si>
-    <t>['Agile', 'HTML', 'Ruby', 'Linux', 'CSS', 'Java', 'Node.js', 'Python', 'JavaScript', 'Angular']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['AI', 'Machine Learning']</t>
+  </si>
+  <si>
+    <t>['SQL', 'Agile']</t>
+  </si>
+  <si>
+    <t>['Node.js', 'Git', 'DevOps', 'CI/CD', 'Docker', 'TypeScript', 'Agile', 'JavaScript', 'React']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'AWS', 'Node.js', 'DevOps', 'Python', 'Azure', 'Docker', 'CI/CD', 'AI', 'JavaScript', 'Cybersecurity', 'Kubernetes', 'React', 'NoSQL', 'SQL']</t>
+  </si>
+  <si>
+    <t>['.NET', 'Cloud', 'SQL', 'Agile']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'DevOps', 'Python', 'Docker', 'Linux', 'Kubernetes']</t>
+  </si>
+  <si>
+    <t>['PostgreSQL', 'Node.js', 'React']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Cloud', 'Python', 'IAM', 'Docker', 'Ansible', 'AI', 'Kubernetes', 'Linux', 'Terraform', 'Jenkins']</t>
+  </si>
+  <si>
+    <t>['Deep Learning', 'Python', 'AI', 'TensorFlow', 'PyTorch']</t>
+  </si>
+  <si>
+    <t>['Django', 'Cloud', 'Go', 'React']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'Git', 'GitHub', 'Redux', 'Webpack', 'TypeScript', 'Angular', 'JavaScript', 'Jest', 'React']</t>
+  </si>
+  <si>
+    <t>['Blockchain']</t>
+  </si>
+  <si>
+    <t>['Express', 'Java', 'Go', 'React', 'Kotlin', 'Vue']</t>
+  </si>
+  <si>
+    <t>['Scrum', 'SQL', 'Agile', 'C++']</t>
+  </si>
+  <si>
+    <t>['AI', 'Microservices', 'Full Stack']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'DevOps', 'Agile', 'Cypress', 'Docker', 'GCP', 'Angular', 'Backend']</t>
+  </si>
+  <si>
+    <t>['Python', 'Node.js']</t>
+  </si>
+  <si>
+    <t>['Python', 'ML', 'AI', 'MySQL', 'Linux']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'GitHub', 'Python', 'CI/CD', 'Docker', 'Kubernetes', 'Linux', 'GitHub Actions', 'Jenkins']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'OpenAPI', 'Python', 'Java', 'Go', 'Docker', 'gRPC', 'Kubernetes', 'Backend', 'PostgreSQL', 'SQL', 'Swagger']</t>
+  </si>
+  <si>
+    <t>['.NET', 'Java']</t>
+  </si>
+  <si>
+    <t>['JavaScript', 'PHP', 'SQL', 'jQuery']</t>
+  </si>
+  <si>
+    <t>['SQL']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'Scrum', 'Git', 'Azure', 'Agile', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'Node.js', 'Redux', 'DevOps', 'Go', 'TypeScript', 'JavaScript', 'GCP', 'Golang', 'React']</t>
+  </si>
+  <si>
+    <t>['Kafka', 'AWS', 'Cloud', 'Prometheus', 'DevOps', 'DynamoDB', 'Java', 'CI/CD', 'Agile', 'Microservices', 'Golang']</t>
+  </si>
+  <si>
+    <t>['SQL', 'C#', 'Serverless', 'Git']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Lambda', 'Node.js', 'DevOps', 'DynamoDB', 'Python', 'Java', 'Docker', 'CI/CD', 'Microservices', 'Kubernetes', 'Serverless', 'Backend']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Cloud', 'Go', 'TypeScript', 'Azure', 'GCP', 'Unix', 'gRPC', 'Linux', 'Backend', 'Kubernetes', 'Distributed Systems', 'Bash']</t>
+  </si>
+  <si>
+    <t>['Scrum', 'Python', 'Java', 'Unix', 'Shell Scripting', 'Linux', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Agile']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'AWS', 'Lambda', 'CloudFormation', 'S3', 'Terraform']</t>
+  </si>
+  <si>
+    <t>['JIRA', 'Agile', 'Scrum', 'Confluence']</t>
+  </si>
+  <si>
+    <t>['Python', 'HTML', 'AI', 'JavaScript', 'SQL', 'Swift']</t>
+  </si>
+  <si>
+    <t>['Node.js', 'Ruby', 'Python', 'Java', 'Agile', 'HTML', 'Angular', 'JavaScript', 'CSS', 'Linux']</t>
+  </si>
+  <si>
+    <t>['SQL', 'Java']</t>
+  </si>
+  <si>
+    <t>['JavaScript', 'Java', 'HTML', 'Git']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Cloud', 'Git', 'Python', 'CI/CD', 'GCP', 'Kubernetes', 'Linux', 'Bash', 'SQL']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Scrum', 'Cloud', 'Azure', 'Agile', 'Angular', 'JavaScript', 'MVC', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'AWS', 'BitBucket', 'Confluence', 'Apache', 'JIRA', 'Java', 'Microservices', 'ElasticSearch', 'Full Stack', 'ArgoCD']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'AWS', 'Node.js', 'DevOps', 'CI/CD', 'Microservices', 'React', 'Full Stack']</t>
+  </si>
+  <si>
+    <t>['Deep Learning', 'Machine Learning', 'Cloud', 'NLP', 'Python', 'ML', 'AI', 'Cybersecurity', 'TensorFlow', 'Computer Vision']</t>
+  </si>
+  <si>
+    <t>['SQLite', 'AWS', 'Cloud', 'iOS', 'Java', 'Azure', 'Docker', 'MySQL', 'Android', 'Flutter', 'Backend', 'Kubernetes', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Go', 'Angular', 'JavaScript', 'MVC', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'Git', 'Java', 'TypeScript', 'Docker', 'JavaScript', 'Kubernetes', 'React', 'Linux']</t>
+  </si>
+  <si>
+    <t>['SQL', 'CSS']</t>
+  </si>
+  <si>
+    <t>['Laravel', 'HTML', 'MySQL', 'JavaScript', 'MVC', 'CSS', 'PHP']</t>
+  </si>
+  <si>
+    <t>['jQuery', 'Java', 'TypeScript', 'Agile', 'Angular', 'JavaScript', 'MVC', 'Cassandra', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Machine Learning', 'Cloud', 'AWS', 'GitHub', 'DevOps', 'Python', 'CI/CD', 'Java', 'JIRA', 'ML', 'AI', 'JavaScript', 'Azure', 'GCP', 'Agile', 'Selenium', 'JUnit']</t>
+  </si>
+  <si>
+    <t>['Scrum', 'DevOps', 'Java', 'Agile', 'HTML', 'Angular', 'JavaScript', 'React', 'SQL', 'Kanban']</t>
+  </si>
+  <si>
+    <t>['Ruby', 'Python', 'HTML', 'JavaScript', 'Rails']</t>
+  </si>
+  <si>
+    <t>['Cloud']</t>
+  </si>
+  <si>
+    <t>['SQL', 'Java', 'Agile', 'Git']</t>
+  </si>
+  <si>
+    <t>['BitBucket', 'Confluence', 'JIRA', 'Java', 'Docker', 'Linux']</t>
+  </si>
+  <si>
+    <t>['Maven', 'Java', 'Agile', 'HTML', 'CI/CD', 'Docker', 'Angular', 'JavaScript', 'Kubernetes', 'Backend', 'React', 'Jenkins', 'jQuery', 'AWS', 'Python', 'Git', 'GitHub', 'Confluence', 'JIRA', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Bootstrap', 'Python', 'Java', 'Agile', 'HTML', 'JavaScript', 'CSS', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Python', 'C++', 'Git']</t>
+  </si>
+  <si>
+    <t>['Python', 'Agile', 'TypeScript', 'Backend', 'SQL']</t>
+  </si>
+  <si>
+    <t>['Next.js', 'HTML', 'JavaScript', 'CSS', 'React']</t>
+  </si>
+  <si>
+    <t>['AI', 'Azure', 'CI/CD', 'ML']</t>
+  </si>
+  <si>
+    <t>['AI', 'TypeScript', 'React']</t>
+  </si>
+  <si>
+    <t>['Ruby', 'Python', 'Java', 'MySQL', 'Linux', 'PHP']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'Go', 'gRPC', 'Backend', 'Redis']</t>
+  </si>
+  <si>
+    <t>['Lambda', 'Java', 'HTML', 'S3', 'Terraform', 'EC2', 'DynamoDB', 'Azure', 'Oracle', 'JavaScript', 'Kubernetes', 'React', 'Backend', 'ElasticSearch', 'Scrum', 'AWS', 'Redux', 'GCP', 'Jest', 'GitHub Actions', 'Cloud', 'ECS', 'GitHub', '.NET', 'Full Stack']</t>
+  </si>
+  <si>
+    <t>['Scrum', 'Redux', 'Webpack', 'Python', 'TypeScript', 'Agile', 'Angular', 'JavaScript', 'React']</t>
+  </si>
+  <si>
+    <t>['AWS', 'ECS', 'Python', 'Docker', 'S3', 'CSS', 'React', 'Bash']</t>
   </si>
   <si>
     <t>['TypeScript', 'Backend']</t>
   </si>
   <si>
+    <t>['Cloud', 'Java', 'Linux', 'Rust']</t>
+  </si>
+  <si>
+    <t>['DevOps', 'PHP']</t>
+  </si>
+  <si>
+    <t>['GraphQL']</t>
+  </si>
+  <si>
+    <t>['Node.js', 'Laravel', 'Python', 'HTML', 'JavaScript', 'Angular', 'CSS', 'React', 'NoSQL', 'Django', 'PHP', 'SQL']</t>
+  </si>
+  <si>
+    <t>['AWS', 'Go', 'TypeScript', 'JavaScript', 'Rails', 'Redis']</t>
+  </si>
+  <si>
+    <t>['GitHub', 'Python', 'MongoDB', 'HTML', 'MySQL', 'Oracle', 'JavaScript', 'Backend', 'PostgreSQL', 'PHP']</t>
+  </si>
+  <si>
+    <t>['Cloud', 'AWS', 'Python', 'JavaScript', 'React', 'Full Stack']</t>
+  </si>
+  <si>
+    <t>['CI/CD', 'Azure', 'Docker', 'MySQL', 'JavaScript', 'Angular', 'Backend', 'React', 'PostgreSQL', 'AWS', 'Flask', 'Python', 'GCP', 'Microservices', 'Vue', 'Cloud', 'Git', 'MongoDB', 'Django']</t>
+  </si>
+  <si>
+    <t>['Python']</t>
+  </si>
+  <si>
+    <t>['Machine Learning', 'Cloud', 'Redux', 'Python', 'Java', 'Agile', 'MongoDB', 'HTML', 'Angular', 'JavaScript', 'React', 'NoSQL']</t>
+  </si>
+  <si>
+    <t>['Machine Learning', 'Express', 'Python', 'TypeScript', 'AI', 'React', 'PostgreSQL']</t>
+  </si>
+  <si>
     <t>Not specified</t>
   </si>
   <si>
-    <t>2+ years2+</t>
-  </si>
-  <si>
-    <t>2+ years of 2+</t>
+    <t>2 years of experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ years of </t>
+  </si>
+  <si>
+    <t>2+ years</t>
+  </si>
+  <si>
+    <t>2+ years of experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10+ years of </t>
+  </si>
+  <si>
+    <t>3 years of experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years of </t>
+  </si>
+  <si>
+    <t>4+ years of experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - 5 years of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4+ years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3+ years of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1+ years of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-3 years of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ years </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 years of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 years of </t>
+  </si>
+  <si>
+    <t>3 years of work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 years of </t>
+  </si>
+  <si>
+    <t>4-5 years</t>
+  </si>
+  <si>
+    <t>1-3 years of experience</t>
+  </si>
+  <si>
+    <t>4 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3 years of </t>
+  </si>
+  <si>
+    <t>$150,000 -250,000</t>
   </si>
   <si>
     <t>$110,000—$130,000</t>
   </si>
   <si>
+    <t>$100,000 - $120,000</t>
+  </si>
+  <si>
+    <t>$152,405</t>
+  </si>
+  <si>
+    <t>$135,000</t>
+  </si>
+  <si>
+    <t>$76,100—$176,200</t>
+  </si>
+  <si>
+    <t>$142,000—$196,600</t>
+  </si>
+  <si>
+    <t>$111,000 - $121,000</t>
+  </si>
+  <si>
+    <t>$41,400 - $59,200</t>
+  </si>
+  <si>
+    <t>$120000 - $140000</t>
+  </si>
+  <si>
+    <t>$74,060 - $105,800</t>
+  </si>
+  <si>
+    <t>$78,000</t>
+  </si>
+  <si>
+    <t>$76,000 - $97,000</t>
+  </si>
+  <si>
+    <t>$67,000 - $116,000</t>
+  </si>
+  <si>
+    <t>$66,800-$91,850</t>
+  </si>
+  <si>
+    <t>$52k-$74k</t>
+  </si>
+  <si>
+    <t>$350K-$500K</t>
+  </si>
+  <si>
+    <t>$79,100</t>
+  </si>
+  <si>
+    <t>$75,000 - $82,000</t>
+  </si>
+  <si>
+    <t>$110,000 - $140,000</t>
+  </si>
+  <si>
+    <t>$85,000</t>
+  </si>
+  <si>
+    <t>$70000</t>
+  </si>
+  <si>
+    <t>$88,000</t>
+  </si>
+  <si>
+    <t>$90,000 - $100,000</t>
+  </si>
+  <si>
+    <t>$48,300-$96,600</t>
+  </si>
+  <si>
     <t>$80,000</t>
   </si>
   <si>
+    <t>$63,000-73,500</t>
+  </si>
+  <si>
+    <t>$49,000-54,000</t>
+  </si>
+  <si>
+    <t>$130,000—$300,000</t>
+  </si>
+  <si>
+    <t>$79,400</t>
+  </si>
+  <si>
+    <t>USD $140,000</t>
+  </si>
+  <si>
+    <t>$160,000</t>
+  </si>
+  <si>
+    <t>$115,200 - $214,000</t>
+  </si>
+  <si>
+    <t>$180,000 - $440,000</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5014253427?v=ADF88F310EEBD17269DF668EA2A04E907D3D8A32&amp;frd=3cc6489c708789aa00ba01ec680e4be9&amp;ccd=d8d2f4e8072afc1a9fe47257739024d3&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.joinrs.com/job-offers/320759/?utm_source=linkedin&amp;utm_medium=job-offer-us&amp;utm_campaign=320759-scraped</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-software-developer-wfh-opportunity-in-honolulu-hi-at-get-it-professional-services-la_553570695477461768</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4816930315?v=F9A954081E417C2C3F0F08AB7F0EA1C79F4E663D&amp;r=18801844&amp;ccd=c6981e091a9bd21eb7293a76b41c2fa4&amp;frd=46bfcdbe37643106347c3aeedb1b910b&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2C%20Forward%20Deployed%20%28Glide%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.careers-page.com/nexis-builds/job/L9W443Y6?utm_medium=free_job_board&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>http://invoicecloud.net/careers/open-positions?gh_jid=6417848003</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-software-engineer-cloud-image-automation-in-san-diego-ca-at-get-it-professional-services-la_553501997911769348</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4975473773?v=8DE25CAA5F3F8C09F763EE2AA7CEFD779BF1A565&amp;r=18801844&amp;frd=7c2977f2752d1ecd535419f0ac5005d9&amp;ccd=7386c235c796cad3fe16b606415f939f&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2C%20Product%20%28San%20Francisco%20Remote%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.joinrs.com/en/job-offers/304349/?utm_source=linkedin&amp;utm_medium=job-offer-us&amp;utm_campaign=304349-scraped</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4824103068?v=B8397372ABA0F1A667D34A4F004844385B42FDC3&amp;ccd=3d533d81c0b879c6baa0637e78bd14d0&amp;frd=da490260b8a78775e05d096e829da105&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2C%20Perception%20%28All%20levels%29&amp;a=e</t>
+  </si>
+  <si>
     <t>https://jobs.ashbyhq.com/Passthrough/040a88e3-192f-424d-a13b-1cb01446d4eb?utm_source=linkedin</t>
   </si>
   <si>
-    <t>http://invoicecloud.net/careers/open-positions?gh_jid=6417848003</t>
+    <t>https://boards.greenhouse.io/axon/jobs/5826761003?gh_src=cdbb51d93us</t>
+  </si>
+  <si>
+    <t>https://grnh.se/2c12ed831us?gh_src=20687b321us</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4839270144?v=12DDA6C51A2DA250741570C22CB549A3CF8E0119&amp;r=18801844&amp;frd=dbce06e6a21a79ee5a215089fdcc72f6&amp;ccd=4f8aa4251cb437397f0b19aac3f6a23e&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%20%28all%20levels%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5019557946?v=81AAB83F7147EBDDDDC7F604A439050A3A3621D4&amp;ccd=0293dfb278d8afa7b6f8f8d7271a96f0&amp;r=18801844&amp;frd=943f82158b6c0885697fb3f0f17b62b7&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%20%28C%2B%2B%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/accenturefederalservices/jobs/4444159006?gh_jid=4444159006&amp;gh_src=17d6aa496us&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://app.greenhouse.io/embed/job_app?token=6595085&amp;gh_src=8c01b2f01</t>
+  </si>
+  <si>
+    <t>https://trissential-jobs.icims.com/jobs/41926/software-engineer-%252528angular%25252c-gcp%252529/job?mode=prepopulate&amp;iis=LinkedIn&amp;iisn=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4811303415?v=5AECE16BC80687AAF47BC0ED74BAF5CC6D1E84D0&amp;frd=a96fb94db2635abf72be0b2f54822c37&amp;r=18801844&amp;ccd=ec348d0fde83dea9d5418958f014beac&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2C%20Implementations%20%28SF%20Remote%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-junior-software-engineer-hybrid-wfh-in-mount-laurel-township-nj-at-get-it-professional-services-la_553570167968235535</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-software-engineer-python-container-images-wfh-in-phoenix-az-at-get-it-professional-services-la_551640721573020173</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/bestow/c4426151-b1bf-4336-9d6f-8667859c28be?utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>https://app.ripplematch.com/t/0ff1bc21</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4929717010?v=E2B7351209B82BECBBEEE25B4FAC3EA4D14C731C&amp;ccd=f1fffcab7f0449b3f1a139b84e4b89ec&amp;frd=238fe0d0bc66495f46980950eb8725f7&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%20%28PHP%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://jobs.worldpay.com/jobs/JR0604486-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/ascendion</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/optomi</t>
+  </si>
+  <si>
+    <t>https://sailpoint.wd1.myworkdayjobs.com/SailPoint/job/United-States/Software-Engineer--Java---GoLang---REMOTE-_R009930?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://jobs.smartrecruiters.com/NBCUniversal3/744000042327070-software-engineer-ii</t>
+  </si>
+  <si>
+    <t>https://candidateportal.ceipal.com/jobs/job_description/WUtick1ET2VKNUU4RStOUnZTcnlsZz09#.job_boards.LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5002080276?v=948628F3B27AD3BDE0D7E21B12DD210DE51EAFDB&amp;frd=ec9665e9a77d9206bca0a772456a88d8&amp;r=18801844&amp;ccd=22853579205014d7cb8057282731e36c&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%200&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://rightbalance.io/opportunities/software_support-engineer-338</t>
+  </si>
+  <si>
+    <t>https://mpulseportal.rec.pro.ukg.net/MPU1000PULSE/JobBoard/dc48557c-996a-4e30-a53d-fd3dfb186808/OpportunityDetail?opportunityId=6b9012e0-137f-43ea-9cb9-09ffe87d648e&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://jobs.jobvite.com/emoneyadvisor-review/job/o1Jmvfwl?__jvst=Job+Board&amp;__jvsd=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://candidateportal.ceipal.com/jobs/job_description/TWh5ck5tdHdHMFR4NFFZTUxFMjRTQT09#.job_boards.LinkedIn</t>
+  </si>
+  <si>
+    <t>https://td.wd3.myworkdayjobs.com/TD_Bank_Careers/job/Fort-Lauderdale-Florida/Software-Engineer-I--US-_R_1398944?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=yonkers_ny</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=chicago_il</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=boston_ma</t>
+  </si>
+  <si>
+    <t>https://countryfinancial.wd5.myworkdayjobs.com/COUNTRYCorporateExternal/job/Bloomington-IL/Software-Developer_R25_0000000067-1?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.joinrs.com/en/job-offers/245231/?utm_source=linkedin&amp;utm_medium=job-offer-us&amp;utm_campaign=245231-scraped</t>
+  </si>
+  <si>
+    <t>https://careers.skillstorm.com/jobs/entry-level-software-developer-41985?keywords=&amp;location=</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4870481499?v=58251D1DA8CDC04972C0A71B6AE014C4A7917D7C&amp;frd=770482beffd484e55b77e59285b377f8&amp;ccd=48bb2c6bc08904883789d9860efad865&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=TestCandidate-Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4816905126?v=97980431764D9E8653BAA5FD90C48933653FB186&amp;ccd=672b108fe0723a190ddeb5f6f7ba0532&amp;frd=6b089d6d1b88522ab2013abceb0994fa&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Junior%20Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://careers.regeneron.com/en/jobs/r38481/associate-software-developer-genetics-center/?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4968124059?v=4F30F2D0FC6502181C4235E20361FE688635026C&amp;frd=c4e234c89eb08b851b8a390173943044&amp;ccd=62ffda1c8ff0172170979828589e40ef&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2FDeveloper&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4863696231?v=3BDFAD9DF93EF42845AAA70158D2EAB426E3D4D4&amp;ccd=6d0f158eb867e560be49fb4e24f951a8&amp;frd=20849be818d06c24d5408a1e08b21b9c&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Developer%2C%20Junior&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/akraya-inc</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/ion/ef7b27aa-427b-44e1-96e9-91d824a44008/apply?lever-source=Job+postings+feed&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://click.appcast.io/track/lwdstts?cs=ivj&amp;sjg=3073</t>
+  </si>
+  <si>
+    <t>https://click.appcast.io/track/lwaykls?cs=ivj&amp;sjg=71nj</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5038645482?v=3C110719A5B96E08D424F6EA6798455516588D09&amp;frd=fe2a1fe1d864452b05f131957df9c3d7&amp;r=18801844&amp;ccd=c414f7ce603668c27de8cbe91eb2255d&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Developer%20II&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.roberthalf.com/us/en/job/mentor-oh/jr-software-developer/03340-0013164821-usen?rh_job-feed=true</t>
+  </si>
+  <si>
+    <t>https://maxar.wd1.myworkdayjobs.com/MAXAR/job/Herndon-VA/Software-Developer-Engineer_R21938?source=Linkedin</t>
+  </si>
+  <si>
+    <t>https://us242.dayforcehcm.com/CandidatePortal/en-us/ontrac/Posting/View/40845?source=LinkedInCD</t>
+  </si>
+  <si>
+    <t>https://careers.caci.com/global/en/job/CACIGLOBAL307929EXTERNALENGLOBAL/Software-Developer?utm_source=linkedin&amp;utm_medium=phenom-feeds</t>
+  </si>
+  <si>
+    <t>https://careers.skillstorm.com/jobs/entry-level-software-developer-41972?keywords=&amp;location=</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/cybercoders</t>
   </si>
   <si>
     <t>https://www.uline.jobs/JobDetails?source=1-LI&amp;jobid=R251503</t>
   </si>
   <si>
-    <t>https://www.joinrs.com/en/job-offers/245231/?utm_source=linkedin&amp;utm_medium=job-offer-us&amp;utm_campaign=245231-scraped</t>
+    <t>https://www.adzuna.com/details/4982021863?v=2E73100E4D03CEB9CC2D20A4A635C7F9500299BD&amp;ccd=7830e58b0e931fa6174e6f314ea5df50&amp;frd=449a16a311753e632431dc48dbecec96&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=UKG%20%28Ultimate%20Kronos%20Group%29%20-%20Software%20Engineer%2C%20application%20via%20RippleMatch&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4955443384?v=AF0B98B1485B79780B6449B97445D7C4B08C3172&amp;ccd=d6b2a5e458d5b7ddb060067cb7925038&amp;r=18801844&amp;frd=38aa18f2809243ba3182ce269d8c651b&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5044859978?v=65BEDD0F2551D9F26C428972F5389677E3037D87&amp;ccd=35d2f17991dccadce475045f883a4bbd&amp;frd=d945aa05012a26c852a869acfed7de1b&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Developer%20%28onsite%20position%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4982038695?v=ACEBC1CCD2ACF713C3665BCAF5255FDD467452DA&amp;frd=d1bbfeb8a496353832de9010ff1fe8f8&amp;r=18801844&amp;ccd=6a6443305e0ca2fd369e52b5958a6ff3&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Associate%20Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://careers.skillstorm.com/jobs/entry-level-software-developer-41974?keywords=&amp;location=</t>
+  </si>
+  <si>
+    <t>https://www.uline.jobs/JobDetails?source=1-LI&amp;jobid=R251502</t>
+  </si>
+  <si>
+    <t>https://www.uline.jobs/JobDetails?source=1-LI&amp;jobid=R251513</t>
+  </si>
+  <si>
+    <t>https://jsv3.recruitics.com/redirect?rx_cid=3374&amp;rx_jobId=JP-005061188&amp;rx_url=https%3A%2F%2Fars2.equest.com%2F%3Ficid%3Dlinkedin_recruitics%26response_id%3D910d710e6a85f733982dd7aae40d08ce%26rx_campaign%3DLinkedin1%26rx_ch%3Dconnector%26rx_group%3D125337%26rx_job%3DJP-005061188%26rx_medium%3Dpost%26rx_r%3Dnone%26rx_source%3DLinkedin%26rx_ts%3D20250214T001201Z%26rx_vp%3Dslots</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/viderityinc/jobs/4544172007</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4804436090?v=23365EBCFF981120FAF0CD818E4F01EA8E1FEBED&amp;frd=fa4a5d817c72aca83d03d19a1e29da1f&amp;r=18801844&amp;ccd=13c0e33ee6f02341193a0ea102d3562d&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Junior%20Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://careers.skillstorm.com/jobs/entry-level-software-developer-41967?keywords=&amp;location=</t>
+  </si>
+  <si>
+    <t>https://recruiting.ultipro.com/APP1013ARSS/JobBoard/d7bd66ed-d867-48a4-879e-5b0f95b51ad5/OpportunityDetail?opportunityId=80e720ba-ce63-4dc5-9517-dd922a77395b&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5043731396?v=F6EB9EBE0F09B08667BA916006625836E12AC3B5&amp;r=18801844&amp;frd=652048e90398eb8e57a51cb5fbdb023e&amp;ccd=c38f8d3bd3feeb611150fc5015290f39&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5031736980?v=0354912563913002E4C049C4CDCE013639C28A66&amp;ccd=2d8485f97c43266fe862565df8e04f27&amp;r=18801844&amp;frd=2e0d34a9416c25f84de678fad07262f6&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Junior%20Front%20End%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://ciratek.com/Careers/junior-software-developer/</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=new_york_ny</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/openai/a58add97-1968-4d5c-b504-ab62bea12df3?utm_source=8lvZy0eqYJ</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5007924776?v=A501A326CD659B11E1172C0DE153FD6717797472&amp;frd=b8563eba5f5e1968bcf01fef97b11314&amp;ccd=879b9636fa3f0ad887d66ebcbb95e268&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer%2C%20New%20Grad%20%28Dec%202024%20Only%29&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4870293458?v=3A942D8E98E8E2A232D43788A9AE7D4726BC3AF2&amp;ccd=0d4eae6ba1b33853f9ad824d04b67637&amp;r=18801844&amp;frd=65bc77f9d95735b05f1510c24b4dd8f0&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Freelance%20Web%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://careers.datadoghq.com/detail/4452904/?gh_jid=4452904&amp;gh_src=8363eca61</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=anaheim_ca</t>
+  </si>
+  <si>
+    <t>https://click.appcast.io/track/lw4vnxc-org?cs=4c&amp;jg=69d9&amp;bid=lUf2CslKyPxm6i440ZgUYA==</t>
+  </si>
+  <si>
+    <t>https://careers.skillstorm.com/jobs/entry-level-software-developer-41969?keywords=&amp;location=</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/5046051890?v=579C8955DC1A54FE0A18EA1312073A4355E61E33&amp;r=18801844&amp;ccd=b9e328196cd85568089bec51c0798edd&amp;frd=85953d6ea183f730199760d04784ad54&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=React%20Developer-F2F%20interview&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://click.appcast.io/track/lwdss6p?cs=ivj&amp;sjg=8cgz</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-full-stack-engineer-hybrid-opportunity-wfh-in-st-louis-mo-at-get-it-professional-services-la_553570049252655367</t>
   </si>
   <si>
     <t>https://www.adzuna.com/details/4972531523?v=3F9AECABA0DD6462E0620CA8E5708DE82DFBF91A&amp;ccd=addd562ebff445b5544836d06d1065c3&amp;frd=5b9b78ebdfd75f0d24cbc0024eed13b9&amp;r=18801844&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Backend%20Engineer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://app.dataannotation.tech/worker_signup?projects=PROG_SA&amp;worker_src=L&amp;utm_source=linkedin&amp;utm_medium=listing&amp;utm_campaign=coder&amp;utm_adgroup=software_developer&amp;utm_content=irvine_ca</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/qumulo/jobs/5902096?source=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://jsv3.recruitics.com/redirect?rx_cid=3435&amp;rx_jobId=JP-005040298&amp;rx_url=https%3A%2F%2Fars2.equest.com%2F%3Ficid%3Dlinkedin_recruitics%26response_id%3D030c0f654c1d25b904452c079e6c8771%26rx_campaign%3DLinkedin1%26rx_ch%3Dconnector%26rx_group%3D123600%26rx_job%3DJP-005040298%26rx_medium%3Dpost%26rx_r%3Dnone%26rx_source%3DLinkedin%26rx_ts%3D20250214T001202Z%26rx_vp%3Dslots</t>
+  </si>
+  <si>
+    <t>https://click.appcast.io/track/lwd6gdy?cs=ivj&amp;sjg=8cgz</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/remote-junior-web-developer-in-remote-at-scopic-552373688041734677</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4816773406?v=52773B36EB995D294F6907A2E474121C6D410367&amp;r=18801844&amp;ccd=6a32eaeb9bf87c41271b5e18b9c72fc9&amp;frd=dfc6209a157409c384a16078ebd9d4db&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Full%20Stack%20Developer%2C%20remote&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4870319149?v=17F68937E1133AA5F099BAF8E5228F22857AB4E2&amp;r=18801844&amp;ccd=77aa52382273fd94ff39670c8e76e4c6&amp;frd=3fa1745cf3bdd48385297c6814d491da&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Junior%20Full%20Stack%20Developer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://careers.gene.com/us/en/job/GENEUS202501101890EXTERNALENUS/Full-Stack-Developer?utm_source=linkedin&amp;utm_medium=phenom-feeds</t>
+  </si>
+  <si>
+    <t>https://metafic.co/python-fullstack-developer/</t>
+  </si>
+  <si>
+    <t>https://www.adzuna.com/details/4814600378?v=9E81DEFB0B3BE3D5E0B8A8AA873B6F3850EE1330&amp;ccd=e25c8fc4d3e539510a8fcfbc2d6edb36&amp;r=18801844&amp;frd=e20b2e93e541c3a723c14410041ca296&amp;utm_source=linkedin7&amp;utm_medium=organic&amp;chnlid=1931&amp;title=Software%20Engineer&amp;a=e</t>
+  </si>
+  <si>
+    <t>https://hdpc.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/job/127791/?utm_medium=jobshare&amp;mode=job&amp;iis=LinkedIn</t>
+  </si>
+  <si>
+    <t>https://grnh.se/30af2b5a7us?gh_src=a6d2f6637us</t>
   </si>
 </sst>
 </file>
@@ -512,21 +1970,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="97.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="252.7109375" customWidth="1"/>
+    <col min="6" max="6" width="256.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="379.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -563,28 +2021,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -592,28 +2050,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>375</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>375</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -621,28 +2079,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>376</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>375</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -650,28 +2108,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -679,57 +2137,3247 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>375</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" t="s">
+        <v>375</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H11" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H13" t="s">
+        <v>375</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" t="s">
+        <v>401</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" t="s">
+        <v>402</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" t="s">
+        <v>375</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" t="s">
+        <v>382</v>
+      </c>
+      <c r="H17" t="s">
+        <v>403</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G18" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" t="s">
+        <v>384</v>
+      </c>
+      <c r="H19" t="s">
+        <v>405</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" t="s">
+        <v>375</v>
+      </c>
+      <c r="H20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" t="s">
+        <v>375</v>
+      </c>
+      <c r="H21" t="s">
+        <v>375</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" t="s">
+        <v>315</v>
+      </c>
+      <c r="G22" t="s">
+        <v>375</v>
+      </c>
+      <c r="H22" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F23" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H23" t="s">
+        <v>375</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" t="s">
+        <v>375</v>
+      </c>
+      <c r="H24" t="s">
+        <v>406</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" t="s">
+        <v>375</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
+        <v>295</v>
+      </c>
+      <c r="F26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G26" t="s">
+        <v>375</v>
+      </c>
+      <c r="H26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F27" t="s">
+        <v>306</v>
+      </c>
+      <c r="G27" t="s">
+        <v>375</v>
+      </c>
+      <c r="H27" t="s">
+        <v>375</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" t="s">
+        <v>375</v>
+      </c>
+      <c r="H28" t="s">
+        <v>407</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E29" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" t="s">
+        <v>379</v>
+      </c>
+      <c r="H29" t="s">
+        <v>375</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" t="s">
+        <v>408</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F31" t="s">
+        <v>323</v>
+      </c>
+      <c r="G31" t="s">
+        <v>385</v>
+      </c>
+      <c r="H31" t="s">
+        <v>375</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F32" t="s">
+        <v>324</v>
+      </c>
+      <c r="G32" t="s">
+        <v>375</v>
+      </c>
+      <c r="H32" t="s">
+        <v>375</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" t="s">
+        <v>294</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>375</v>
+      </c>
+      <c r="H33" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F34" t="s">
+        <v>325</v>
+      </c>
+      <c r="G34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H34" t="s">
+        <v>375</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" t="s">
+        <v>375</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>241</v>
+      </c>
+      <c r="E36" t="s">
+        <v>295</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>388</v>
+      </c>
+      <c r="H36" t="s">
+        <v>410</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" t="s">
+        <v>375</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>389</v>
+      </c>
+      <c r="H38" t="s">
+        <v>411</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" t="s">
+        <v>295</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>375</v>
+      </c>
+      <c r="H39" t="s">
+        <v>375</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" t="s">
+        <v>330</v>
+      </c>
+      <c r="G40" t="s">
+        <v>375</v>
+      </c>
+      <c r="H40" t="s">
+        <v>375</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" t="s">
+        <v>330</v>
+      </c>
+      <c r="G41" t="s">
+        <v>375</v>
+      </c>
+      <c r="H41" t="s">
+        <v>375</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>377</v>
+      </c>
+      <c r="H42" t="s">
+        <v>412</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" t="s">
+        <v>375</v>
+      </c>
+      <c r="H43" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>390</v>
+      </c>
+      <c r="H44" t="s">
+        <v>413</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" t="s">
+        <v>296</v>
+      </c>
+      <c r="G45" t="s">
+        <v>375</v>
+      </c>
+      <c r="H45" t="s">
+        <v>414</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
+      <c r="F46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" t="s">
+        <v>334</v>
+      </c>
+      <c r="G47" t="s">
+        <v>391</v>
+      </c>
+      <c r="H47" t="s">
+        <v>415</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>375</v>
+      </c>
+      <c r="H48" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49" t="s">
+        <v>375</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+      <c r="E50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" t="s">
+        <v>375</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" t="s">
+        <v>327</v>
+      </c>
+      <c r="G51" t="s">
+        <v>393</v>
+      </c>
+      <c r="H51" t="s">
+        <v>416</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G52" t="s">
+        <v>394</v>
+      </c>
+      <c r="H52" t="s">
+        <v>375</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" t="s">
+        <v>319</v>
+      </c>
+      <c r="G53" t="s">
+        <v>375</v>
+      </c>
+      <c r="H53" t="s">
+        <v>417</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" t="s">
+        <v>294</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>389</v>
+      </c>
+      <c r="H54" t="s">
+        <v>418</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>269</v>
+      </c>
+      <c r="E55" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" t="s">
+        <v>340</v>
+      </c>
+      <c r="G55" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" t="s">
+        <v>419</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>270</v>
+      </c>
+      <c r="E56" t="s">
+        <v>294</v>
+      </c>
+      <c r="F56" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" t="s">
+        <v>377</v>
+      </c>
+      <c r="H56" t="s">
+        <v>420</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" t="s">
+        <v>421</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" t="s">
+        <v>296</v>
+      </c>
+      <c r="G58" t="s">
+        <v>375</v>
+      </c>
+      <c r="H58" t="s">
+        <v>422</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" t="s">
+        <v>332</v>
+      </c>
+      <c r="G59" t="s">
+        <v>390</v>
+      </c>
+      <c r="H59" t="s">
+        <v>413</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>272</v>
+      </c>
+      <c r="E60" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" t="s">
+        <v>375</v>
+      </c>
+      <c r="H60" t="s">
+        <v>375</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" t="s">
+        <v>294</v>
+      </c>
+      <c r="F61" t="s">
+        <v>344</v>
+      </c>
+      <c r="G61" t="s">
+        <v>377</v>
+      </c>
+      <c r="H61" t="s">
+        <v>423</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G62" t="s">
+        <v>377</v>
+      </c>
+      <c r="H62" t="s">
+        <v>375</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" t="s">
+        <v>375</v>
+      </c>
+      <c r="H63" t="s">
+        <v>375</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F64" t="s">
+        <v>347</v>
+      </c>
+      <c r="G64" t="s">
+        <v>375</v>
+      </c>
+      <c r="H64" t="s">
+        <v>375</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>252</v>
+      </c>
+      <c r="E65" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" t="s">
+        <v>375</v>
+      </c>
+      <c r="H65" t="s">
+        <v>406</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" t="s">
+        <v>294</v>
+      </c>
+      <c r="F66" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" t="s">
+        <v>395</v>
+      </c>
+      <c r="H66" t="s">
+        <v>375</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" t="s">
+        <v>276</v>
+      </c>
+      <c r="E67" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" t="s">
+        <v>332</v>
+      </c>
+      <c r="G67" t="s">
+        <v>390</v>
+      </c>
+      <c r="H67" t="s">
+        <v>413</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
+        <v>277</v>
+      </c>
+      <c r="E68" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" t="s">
+        <v>349</v>
+      </c>
+      <c r="G68" t="s">
+        <v>377</v>
+      </c>
+      <c r="H68" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" t="s">
+        <v>278</v>
+      </c>
+      <c r="E69" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" t="s">
+        <v>377</v>
+      </c>
+      <c r="H69" t="s">
+        <v>423</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>279</v>
+      </c>
+      <c r="E70" t="s">
+        <v>294</v>
+      </c>
+      <c r="F70" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" t="s">
+        <v>375</v>
+      </c>
+      <c r="H70" t="s">
+        <v>375</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>280</v>
+      </c>
+      <c r="E71" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" t="s">
+        <v>375</v>
+      </c>
+      <c r="H71" t="s">
+        <v>424</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" t="s">
+        <v>281</v>
+      </c>
+      <c r="E72" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" t="s">
+        <v>352</v>
+      </c>
+      <c r="G72" t="s">
+        <v>375</v>
+      </c>
+      <c r="H72" t="s">
+        <v>375</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" t="s">
+        <v>294</v>
+      </c>
+      <c r="F73" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" t="s">
+        <v>413</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" t="s">
+        <v>294</v>
+      </c>
+      <c r="F74" t="s">
+        <v>353</v>
+      </c>
+      <c r="G74" t="s">
+        <v>375</v>
+      </c>
+      <c r="H74" t="s">
+        <v>375</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" t="s">
+        <v>283</v>
+      </c>
+      <c r="E75" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" t="s">
+        <v>354</v>
+      </c>
+      <c r="G75" t="s">
+        <v>391</v>
+      </c>
+      <c r="H75" t="s">
+        <v>375</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>59</v>
+      </c>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" t="s">
+        <v>294</v>
+      </c>
+      <c r="F76" t="s">
+        <v>355</v>
+      </c>
+      <c r="G76" t="s">
+        <v>393</v>
+      </c>
+      <c r="H76" t="s">
+        <v>425</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" t="s">
+        <v>285</v>
+      </c>
+      <c r="E77" t="s">
+        <v>294</v>
+      </c>
+      <c r="F77" t="s">
+        <v>296</v>
+      </c>
+      <c r="G77" t="s">
+        <v>375</v>
+      </c>
+      <c r="H77" t="s">
+        <v>375</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" t="s">
+        <v>240</v>
+      </c>
+      <c r="E78" t="s">
+        <v>295</v>
+      </c>
+      <c r="F78" t="s">
+        <v>330</v>
+      </c>
+      <c r="G78" t="s">
+        <v>375</v>
+      </c>
+      <c r="H78" t="s">
+        <v>375</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" t="s">
+        <v>244</v>
+      </c>
+      <c r="E79" t="s">
+        <v>294</v>
+      </c>
+      <c r="F79" t="s">
+        <v>356</v>
+      </c>
+      <c r="G79" t="s">
+        <v>375</v>
+      </c>
+      <c r="H79" t="s">
+        <v>375</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" t="s">
+        <v>357</v>
+      </c>
+      <c r="G80" t="s">
+        <v>375</v>
+      </c>
+      <c r="H80" t="s">
+        <v>375</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" t="s">
+        <v>358</v>
+      </c>
+      <c r="G81" t="s">
+        <v>375</v>
+      </c>
+      <c r="H81" t="s">
+        <v>375</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" t="s">
+        <v>295</v>
+      </c>
+      <c r="F82" t="s">
+        <v>330</v>
+      </c>
+      <c r="G82" t="s">
+        <v>375</v>
+      </c>
+      <c r="H82" t="s">
+        <v>375</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" t="s">
+        <v>295</v>
+      </c>
+      <c r="F83" t="s">
+        <v>331</v>
+      </c>
+      <c r="G83" t="s">
+        <v>375</v>
+      </c>
+      <c r="H83" t="s">
+        <v>375</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
+        <v>294</v>
+      </c>
+      <c r="F84" t="s">
+        <v>332</v>
+      </c>
+      <c r="G84" t="s">
+        <v>390</v>
+      </c>
+      <c r="H84" t="s">
+        <v>413</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>294</v>
+      </c>
+      <c r="F85" t="s">
+        <v>334</v>
+      </c>
+      <c r="G85" t="s">
+        <v>391</v>
+      </c>
+      <c r="H85" t="s">
+        <v>415</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
+        <v>295</v>
+      </c>
+      <c r="F86" t="s">
+        <v>337</v>
+      </c>
+      <c r="G86" t="s">
+        <v>375</v>
+      </c>
+      <c r="H86" t="s">
+        <v>375</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" t="s">
+        <v>240</v>
+      </c>
+      <c r="E87" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" t="s">
+        <v>359</v>
+      </c>
+      <c r="G87" t="s">
+        <v>375</v>
+      </c>
+      <c r="H87" t="s">
+        <v>426</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E88" t="s">
+        <v>295</v>
+      </c>
+      <c r="F88" t="s">
+        <v>330</v>
+      </c>
+      <c r="G88" t="s">
+        <v>375</v>
+      </c>
+      <c r="H88" t="s">
+        <v>375</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89" t="s">
+        <v>360</v>
+      </c>
+      <c r="G89" t="s">
+        <v>396</v>
+      </c>
+      <c r="H89" t="s">
+        <v>427</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" t="s">
+        <v>264</v>
+      </c>
+      <c r="E90" t="s">
+        <v>294</v>
+      </c>
+      <c r="F90" t="s">
+        <v>332</v>
+      </c>
+      <c r="G90" t="s">
+        <v>390</v>
+      </c>
+      <c r="H90" t="s">
+        <v>413</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" t="s">
+        <v>266</v>
+      </c>
+      <c r="E91" t="s">
+        <v>294</v>
+      </c>
+      <c r="F91" t="s">
+        <v>361</v>
+      </c>
+      <c r="G91" t="s">
+        <v>375</v>
+      </c>
+      <c r="H91" t="s">
+        <v>375</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
+        <v>254</v>
+      </c>
+      <c r="E92" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" t="s">
+        <v>338</v>
+      </c>
+      <c r="G92" t="s">
+        <v>394</v>
+      </c>
+      <c r="H92" t="s">
+        <v>375</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>152</v>
+      </c>
+      <c r="C93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" t="s">
+        <v>362</v>
+      </c>
+      <c r="G93" t="s">
+        <v>375</v>
+      </c>
+      <c r="H93" t="s">
+        <v>375</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" t="s">
+        <v>332</v>
+      </c>
+      <c r="G94" t="s">
+        <v>390</v>
+      </c>
+      <c r="H94" t="s">
+        <v>413</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" t="s">
+        <v>272</v>
+      </c>
+      <c r="E95" t="s">
+        <v>294</v>
+      </c>
+      <c r="F95" t="s">
+        <v>343</v>
+      </c>
+      <c r="G95" t="s">
+        <v>375</v>
+      </c>
+      <c r="H95" t="s">
+        <v>375</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" t="s">
+        <v>344</v>
+      </c>
+      <c r="G96" t="s">
+        <v>377</v>
+      </c>
+      <c r="H96" t="s">
+        <v>423</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" t="s">
+        <v>294</v>
+      </c>
+      <c r="F97" t="s">
+        <v>363</v>
+      </c>
+      <c r="G97" t="s">
+        <v>375</v>
+      </c>
+      <c r="H97" t="s">
+        <v>375</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" t="s">
+        <v>317</v>
+      </c>
+      <c r="G98" t="s">
+        <v>375</v>
+      </c>
+      <c r="H98" t="s">
+        <v>406</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="D99" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" t="s">
+        <v>295</v>
+      </c>
+      <c r="F99" t="s">
+        <v>330</v>
+      </c>
+      <c r="G99" t="s">
+        <v>375</v>
+      </c>
+      <c r="H99" t="s">
+        <v>375</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B100" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" t="s">
+        <v>245</v>
+      </c>
+      <c r="E100" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" t="s">
+        <v>364</v>
+      </c>
+      <c r="G100" t="s">
+        <v>377</v>
+      </c>
+      <c r="H100" t="s">
+        <v>428</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" t="s">
+        <v>332</v>
+      </c>
+      <c r="G101" t="s">
+        <v>390</v>
+      </c>
+      <c r="H101" t="s">
+        <v>413</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" t="s">
+        <v>349</v>
+      </c>
+      <c r="G102" t="s">
+        <v>377</v>
+      </c>
+      <c r="H102" t="s">
+        <v>423</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>278</v>
+      </c>
+      <c r="E103" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" t="s">
+        <v>344</v>
+      </c>
+      <c r="G103" t="s">
+        <v>377</v>
+      </c>
+      <c r="H103" t="s">
+        <v>423</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" t="s">
+        <v>306</v>
+      </c>
+      <c r="G104" t="s">
+        <v>375</v>
+      </c>
+      <c r="H104" t="s">
+        <v>375</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" t="s">
+        <v>295</v>
+      </c>
+      <c r="F105" t="s">
+        <v>321</v>
+      </c>
+      <c r="G105" t="s">
+        <v>379</v>
+      </c>
+      <c r="H105" t="s">
+        <v>375</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" t="s">
+        <v>290</v>
+      </c>
+      <c r="E106" t="s">
+        <v>294</v>
+      </c>
+      <c r="F106" t="s">
+        <v>365</v>
+      </c>
+      <c r="G106" t="s">
+        <v>375</v>
+      </c>
+      <c r="H106" t="s">
+        <v>375</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107" t="s">
+        <v>241</v>
+      </c>
+      <c r="E107" t="s">
+        <v>295</v>
+      </c>
+      <c r="F107" t="s">
+        <v>366</v>
+      </c>
+      <c r="G107" t="s">
+        <v>375</v>
+      </c>
+      <c r="H107" t="s">
+        <v>375</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" t="s">
+        <v>232</v>
+      </c>
+      <c r="D108" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" t="s">
+        <v>367</v>
+      </c>
+      <c r="G108" t="s">
+        <v>375</v>
+      </c>
+      <c r="H108" t="s">
+        <v>375</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" t="s">
+        <v>295</v>
+      </c>
+      <c r="F109" t="s">
+        <v>368</v>
+      </c>
+      <c r="G109" t="s">
+        <v>379</v>
+      </c>
+      <c r="H109" t="s">
+        <v>429</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>79</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" t="s">
+        <v>291</v>
+      </c>
+      <c r="E110" t="s">
+        <v>294</v>
+      </c>
+      <c r="F110" t="s">
+        <v>369</v>
+      </c>
+      <c r="G110" t="s">
+        <v>375</v>
+      </c>
+      <c r="H110" t="s">
+        <v>375</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" t="s">
+        <v>292</v>
+      </c>
+      <c r="E111" t="s">
+        <v>294</v>
+      </c>
+      <c r="F111" t="s">
+        <v>370</v>
+      </c>
+      <c r="G111" t="s">
+        <v>397</v>
+      </c>
+      <c r="H111" t="s">
+        <v>430</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" t="s">
+        <v>241</v>
+      </c>
+      <c r="E112" t="s">
+        <v>295</v>
+      </c>
+      <c r="F112" t="s">
+        <v>371</v>
+      </c>
+      <c r="G112" t="s">
+        <v>375</v>
+      </c>
+      <c r="H112" t="s">
+        <v>375</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" t="s">
+        <v>237</v>
+      </c>
+      <c r="D113" t="s">
+        <v>260</v>
+      </c>
+      <c r="E113" t="s">
+        <v>294</v>
+      </c>
+      <c r="F113" t="s">
+        <v>372</v>
+      </c>
+      <c r="G113" t="s">
+        <v>375</v>
+      </c>
+      <c r="H113" t="s">
+        <v>375</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" t="s">
+        <v>285</v>
+      </c>
+      <c r="E114" t="s">
+        <v>294</v>
+      </c>
+      <c r="F114" t="s">
+        <v>296</v>
+      </c>
+      <c r="G114" t="s">
+        <v>375</v>
+      </c>
+      <c r="H114" t="s">
+        <v>375</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" t="s">
+        <v>275</v>
+      </c>
+      <c r="E115" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115" t="s">
+        <v>373</v>
+      </c>
+      <c r="G115" t="s">
+        <v>387</v>
+      </c>
+      <c r="H115" t="s">
+        <v>375</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" t="s">
+        <v>194</v>
+      </c>
+      <c r="D116" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" t="s">
+        <v>295</v>
+      </c>
+      <c r="F116" t="s">
+        <v>330</v>
+      </c>
+      <c r="G116" t="s">
+        <v>375</v>
+      </c>
+      <c r="H116" t="s">
+        <v>375</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
+        <v>293</v>
+      </c>
+      <c r="E117" t="s">
+        <v>294</v>
+      </c>
+      <c r="F117" t="s">
+        <v>374</v>
+      </c>
+      <c r="G117" t="s">
+        <v>375</v>
+      </c>
+      <c r="H117" t="s">
+        <v>431</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -740,6 +5388,116 @@
     <hyperlink ref="I5" r:id="rId4"/>
     <hyperlink ref="I6" r:id="rId5"/>
     <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31" location=".job_boards.LinkedIn"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36" location=".job_boards.LinkedIn"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
+    <hyperlink ref="I105" r:id="rId104"/>
+    <hyperlink ref="I106" r:id="rId105"/>
+    <hyperlink ref="I107" r:id="rId106"/>
+    <hyperlink ref="I108" r:id="rId107"/>
+    <hyperlink ref="I109" r:id="rId108"/>
+    <hyperlink ref="I110" r:id="rId109"/>
+    <hyperlink ref="I111" r:id="rId110"/>
+    <hyperlink ref="I112" r:id="rId111"/>
+    <hyperlink ref="I113" r:id="rId112"/>
+    <hyperlink ref="I114" r:id="rId113"/>
+    <hyperlink ref="I115" r:id="rId114"/>
+    <hyperlink ref="I116" r:id="rId115"/>
+    <hyperlink ref="I117" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
